--- a/Materiały/Dane.xlsx
+++ b/Materiały/Dane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\MiSK-project\Materiały\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F539431-DB2D-4AAA-996B-62B838297FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD212113-0627-4747-9F3C-D37F37F6C367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7788" yWindow="0" windowWidth="23040" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Trebusz Startowy</t>
   </si>
@@ -37,27 +37,6 @@
   </si>
   <si>
     <t>Impact</t>
-  </si>
-  <si>
-    <t>5,95*10^5</t>
-  </si>
-  <si>
-    <t>4,29*10^5</t>
-  </si>
-  <si>
-    <t>2,31*10^5</t>
-  </si>
-  <si>
-    <t>2,31*10^4</t>
-  </si>
-  <si>
-    <t>1,1*10^8</t>
-  </si>
-  <si>
-    <t>2,07 * 10^8</t>
-  </si>
-  <si>
-    <t>2,69*10^8</t>
   </si>
 </sst>
 </file>
@@ -93,12 +72,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -111,6 +91,1239 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12470603674540683"/>
+          <c:y val="0.14393518518518519"/>
+          <c:w val="0.83017585301837271"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Range</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>21.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>321.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>291.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>220.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>188.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>152.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8118-4E16-B2E5-371D16E48F54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="178812368"/>
+        <c:axId val="336875696"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>595000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>429000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>207000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>269000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>311000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>341000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>366000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>384000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>393000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>396000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>394000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8118-4E16-B2E5-371D16E48F54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="178811408"/>
+        <c:axId val="347355536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="178812368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336875696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="336875696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178812368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="347355536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178811408"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="178811408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="347355536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10825894423624853"/>
+          <c:y val="0.16383052283118832"/>
+          <c:w val="8.1810231795559712E-2"/>
+          <c:h val="0.10071690904348686"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB47E98-0D17-10F9-6EE0-60309CC4B6DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,15 +1589,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D27"/>
+  <dimension ref="B2:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -411,8 +1625,8 @@
       <c r="C5" s="1">
         <v>21.07</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
+      <c r="D5" s="2">
+        <v>595000</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -422,8 +1636,8 @@
       <c r="C6" s="1">
         <v>27.66</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
+      <c r="D6" s="2">
+        <v>429000</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -433,8 +1647,8 @@
       <c r="C7" s="1">
         <v>41.22</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
+      <c r="D7" s="2">
+        <v>231000</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -444,8 +1658,8 @@
       <c r="C8" s="1">
         <v>83.12</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
+      <c r="D8" s="2">
+        <v>23100</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -455,8 +1669,8 @@
       <c r="C9" s="1">
         <v>321.31</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
+      <c r="D9" s="2">
+        <v>110000000</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -466,8 +1680,8 @@
       <c r="C10" s="1">
         <v>291.69</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
+      <c r="D10" s="2">
+        <v>207000000</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -477,56 +1691,86 @@
       <c r="C11" s="1">
         <v>255.28</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
+      <c r="D11" s="2">
+        <v>269000000</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>46</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1">
+        <v>220.86</v>
+      </c>
+      <c r="D12" s="2">
+        <v>311000000</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>47</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1">
+        <v>188.14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>341000000</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>48</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1">
+        <v>152.22</v>
+      </c>
+      <c r="D14" s="2">
+        <v>366000000</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>49</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1">
+        <v>113.67</v>
+      </c>
+      <c r="D15" s="2">
+        <v>384000000</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>50</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1">
+        <v>81.42</v>
+      </c>
+      <c r="D16" s="2">
+        <v>393000000</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>51</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>48.37</v>
+      </c>
+      <c r="D17" s="2">
+        <v>396000000</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="1">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15.02</v>
+      </c>
+      <c r="D18" s="2">
+        <v>394000000</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
@@ -534,46 +1778,75 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Materiały/Dane.xlsx
+++ b/Materiały/Dane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\MiSK-project\Materiały\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD212113-0627-4747-9F3C-D37F37F6C367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9327438D-5245-4CE0-946C-0F05CD2AB535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7788" yWindow="0" windowWidth="23040" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -96,7 +96,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -114,8 +114,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12470603674540683"/>
-          <c:y val="0.14393518518518519"/>
+          <c:x val="0.1067742396504672"/>
+          <c:y val="0.14990354271964884"/>
           <c:w val="0.83017585301837271"/>
           <c:h val="0.72088764946048411"/>
         </c:manualLayout>
@@ -1290,15 +1290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1589,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D35"/>
+  <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1600,14 +1600,17 @@
     <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>39</v>
       </c>
@@ -1628,8 +1631,9 @@
       <c r="D5" s="2">
         <v>595000</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>40</v>
       </c>
@@ -1639,8 +1643,11 @@
       <c r="D6" s="2">
         <v>429000</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>41</v>
       </c>
@@ -1650,8 +1657,11 @@
       <c r="D7" s="2">
         <v>231000</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>42</v>
       </c>
@@ -1661,8 +1671,11 @@
       <c r="D8" s="2">
         <v>23100</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>43</v>
       </c>
@@ -1672,8 +1685,11 @@
       <c r="D9" s="2">
         <v>110000000</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>44</v>
       </c>
@@ -1683,8 +1699,11 @@
       <c r="D10" s="2">
         <v>207000000</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>45</v>
       </c>
@@ -1694,8 +1713,11 @@
       <c r="D11" s="2">
         <v>269000000</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>46</v>
       </c>
@@ -1705,8 +1727,11 @@
       <c r="D12" s="2">
         <v>311000000</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>47</v>
       </c>
@@ -1716,8 +1741,11 @@
       <c r="D13" s="2">
         <v>341000000</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>48</v>
       </c>
@@ -1727,8 +1755,11 @@
       <c r="D14" s="2">
         <v>366000000</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>49</v>
       </c>
@@ -1738,8 +1769,11 @@
       <c r="D15" s="2">
         <v>384000000</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>50</v>
       </c>
@@ -1749,8 +1783,11 @@
       <c r="D16" s="2">
         <v>393000000</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>51</v>
       </c>
@@ -1760,8 +1797,11 @@
       <c r="D17" s="2">
         <v>396000000</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>52</v>
       </c>
@@ -1771,66 +1811,87 @@
       <c r="D18" s="2">
         <v>394000000</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
